--- a/src/assets/base_factory.xlsx
+++ b/src/assets/base_factory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alrim\Documents\Proyectos\techzilla-web\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DD8E1-B16D-4667-8D7E-402813D416C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E71A3B6-F632-4C43-90C0-9A0E7982A9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{37306890-F2B8-425B-8D89-8D51B790965C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37306890-F2B8-425B-8D89-8D51B790965C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E28A60-1E32-4AB1-895A-617DE56F636B}">
   <dimension ref="A1:R297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="R237" sqref="R237:R297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
